--- a/Documentação/Planilhas/Conferencia_EST_301.xlsx
+++ b/Documentação/Planilhas/Conferencia_EST_301.xlsx
@@ -10,7 +10,7 @@
     <sheet name="stg_est_crossdocking" sheetId="95" r:id="rId1"/>
     <sheet name="stg_est_estoque" sheetId="107" r:id="rId2"/>
     <sheet name="stg_est_referencia" sheetId="105" r:id="rId3"/>
-    <sheet name="stg_est_fechamento_estoque" sheetId="109" r:id="rId4"/>
+    <sheet name="stg_est_fechamento_estoque" sheetId="110" r:id="rId4"/>
     <sheet name="Plan1" sheetId="102" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -881,54 +881,54 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,11 +971,11 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1283,12 +1283,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C18" sqref="C18:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1921,7 +1921,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="21.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1963,7 +1963,7 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
         <v>118</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="10" t="s">
         <v>118</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="AI9" s="2"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>118</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="AI10" s="2"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>118</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>118</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="AI12" s="2"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="10" t="s">
         <v>118</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="AI13" s="2"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10" t="s">
         <v>118</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="AI14" s="2"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="10" t="s">
         <v>118</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="AI15" s="2"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="10" t="s">
         <v>118</v>
       </c>
@@ -2362,21 +2362,21 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="24"/>
       <c r="AI17" s="2"/>
     </row>
     <row r="18" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="24"/>
+      <c r="C18" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="18" t="s">
         <v>112</v>
       </c>
@@ -2389,38 +2389,38 @@
       <c r="AI18" s="2"/>
     </row>
     <row r="19" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="24"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="AI19" s="2"/>
     </row>
     <row r="20" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="A20" s="24"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -2432,22 +2432,22 @@
       <c r="E21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="39" t="s">
         <v>115</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="39" t="s">
         <v>116</v>
       </c>
       <c r="L21" s="21" t="s">
@@ -2459,65 +2459,65 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="22"/>
       <c r="M22" s="17"/>
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="22"/>
       <c r="M23" s="17"/>
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="25"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="22"/>
       <c r="M24" s="17"/>
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="25"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="23"/>
       <c r="M25" s="17"/>
       <c r="AI25" s="2"/>
@@ -2529,11 +2529,11 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="25"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
@@ -2566,11 +2566,11 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="25"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="25"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="9"/>
       <c r="M27" s="6" t="s">
         <v>84</v>
@@ -2599,9 +2599,9 @@
       <c r="AI27" s="10"/>
     </row>
     <row r="28" spans="1:35" ht="33.75">
-      <c r="G28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="G28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="K28" s="39"/>
       <c r="M28" s="7" t="s">
         <v>85</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="24.75" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -2711,7 +2711,7 @@
       <c r="AI32" s="2"/>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="27"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="5" t="s">
         <v>118</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="AI33" s="2"/>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" s="27"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="5" t="s">
         <v>118</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" s="27"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10" t="s">
         <v>118</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="27"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="10" t="s">
         <v>118</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="27"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5" t="s">
         <v>118</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="27"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5" t="s">
         <v>118</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="AI38" s="2"/>
     </row>
     <row r="39" spans="1:35">
-      <c r="A39" s="27"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="5" t="s">
         <v>118</v>
       </c>
@@ -2990,7 +2990,7 @@
       </c>
     </row>
     <row r="40" spans="1:35">
-      <c r="A40" s="27"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="5" t="s">
         <v>118</v>
       </c>
@@ -3029,7 +3029,7 @@
       </c>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" s="27"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="5" t="s">
         <v>118</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
     </row>
     <row r="42" spans="1:35">
-      <c r="A42" s="27"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>118</v>
       </c>
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="43" spans="1:35">
-      <c r="A43" s="27"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -3122,58 +3122,58 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:35" ht="13.5" customHeight="1">
-      <c r="A44" s="27"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="28" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="28" t="s">
+      <c r="L44" s="26"/>
+      <c r="M44" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="10.5" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="24"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="29"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A46" s="27"/>
-      <c r="C46" s="34"/>
+      <c r="A46" s="24"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="30"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A47" s="27"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="17" t="s">
         <v>100</v>
       </c>
@@ -3212,7 +3212,7 @@
       </c>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="27"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3227,7 +3227,7 @@
       <c r="M48" s="22"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="27"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3242,7 +3242,7 @@
       <c r="M49" s="22"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="27"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3257,7 +3257,7 @@
       <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="27"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3314,12 +3314,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="K44:L46"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C18:J20"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="A32:A51"/>
     <mergeCell ref="J44:J46"/>
@@ -3336,20 +3344,12 @@
     <mergeCell ref="K47:K51"/>
     <mergeCell ref="M44:M46"/>
     <mergeCell ref="M47:M51"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C18:J20"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="I21:I28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="K44:L46"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="K18:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3359,12 +3359,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:AH34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3828,51 +3828,51 @@
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="44" t="s">
         <v>91</v>
       </c>
       <c r="G19" s="45"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="31" t="s">
         <v>95</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1">
-      <c r="B20" s="34"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="46"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
@@ -4003,6 +4003,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="J22:J34"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I26"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="J19:J21"/>
@@ -4014,13 +4021,6 @@
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="J22:J34"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="F19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4030,12 +4030,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D22" sqref="D22:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="55" t="s">
         <v>161</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -4150,19 +4150,19 @@
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="56"/>
-      <c r="F21" s="28"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:7" ht="11.25" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>162</v>
@@ -4173,7 +4173,7 @@
       <c r="D22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="39" t="s">
         <v>165</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -4188,7 +4188,7 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
@@ -4197,7 +4197,7 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
@@ -4206,7 +4206,7 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
@@ -4215,7 +4215,7 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
@@ -4224,12 +4224,12 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="11.25" customHeight="1">
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="39" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -4246,7 +4246,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4255,7 +4255,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="25"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -4264,7 +4264,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -4273,7 +4273,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="25"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -4282,7 +4282,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -4291,7 +4291,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4300,7 +4300,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4309,7 +4309,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="25"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4318,19 +4318,19 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="D40" s="25"/>
+      <c r="D40" s="39"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="D41" s="25"/>
+      <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="D42" s="25"/>
+      <c r="D42" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
